--- a/C9800-L-F-K9.xlsx
+++ b/C9800-L-F-K9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quang\Desktop\sp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAA59A1-A12E-4939-A28D-A06AF799DDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE49881A-77D5-4950-AE14-6F558270438A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{FE3ACBBD-B518-45D8-9A3F-DA3201E00F72}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FE3ACBBD-B518-45D8-9A3F-DA3201E00F72}"/>
   </bookViews>
   <sheets>
     <sheet name="C9800-L-F-K9" sheetId="1" r:id="rId1"/>
@@ -682,17 +682,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9030450F-E3C5-465E-AA2A-38CC7F619816}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.36328125" customWidth="1"/>
-    <col min="2" max="2" width="41.6328125" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,13 +698,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -714,7 +712,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -722,7 +720,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -730,7 +728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -738,7 +736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -746,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -754,7 +752,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -762,7 +760,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -770,7 +768,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -778,7 +776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -786,7 +784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -794,7 +792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -802,7 +800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
@@ -810,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -818,7 +816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
@@ -826,7 +824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
@@ -834,7 +832,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>49</v>
       </c>
@@ -842,43 +840,43 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
@@ -886,7 +884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="56" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
@@ -894,7 +892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="56" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>51</v>
       </c>
@@ -902,7 +900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="56" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
@@ -910,7 +908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -918,7 +916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
